--- a/BalanceSheet/APTV_bal.xlsx
+++ b/BalanceSheet/APTV_bal.xlsx
@@ -502,19 +502,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-68000000.0</v>
+        <v>1302000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-14000000.0</v>
+        <v>1233000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>151000000.0</v>
+        <v>1216000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-77000000.0</v>
+        <v>1368000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>71000000.0</v>
+        <v>1290000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1345000000.0</v>
@@ -1646,19 +1646,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>330000000.0</v>
+        <v>2571000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>758000000.0</v>
+        <v>2186000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-732000000.0</v>
+        <v>1432000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-170000000.0</v>
+        <v>2243000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>152000000.0</v>
+        <v>2463000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>2232000000.0</v>
@@ -3200,19 +3200,19 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>-62000000.0</v>
+        <v>33000000.0</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>32000000.0</v>
+        <v>94000000.0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>-4000000.0</v>
+        <v>62000000.0</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>-18000000.0</v>
+        <v>62000000.0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>-47000000.0</v>
+        <v>65000000.0</v>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
